--- a/Excel/Laborator 1_1.xlsx
+++ b/Excel/Laborator 1_1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Транспорт_3" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="76">
   <si>
     <t>New style</t>
   </si>
@@ -241,14 +241,24 @@
   </si>
   <si>
     <t>Имя 10</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Medium</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="#,##0\ [$lei-418]"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0\ [$lei-418]"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00\ [$lei-418]"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -835,36 +845,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -873,36 +869,10 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="16" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="16" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -910,15 +880,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -939,15 +900,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -960,6 +912,32 @@
     <xf numFmtId="14" fontId="12" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -969,6 +947,47 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1260,8 +1279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AK17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:AH17"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AK17" sqref="AK17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1270,726 +1289,1429 @@
     <col min="3" max="3" width="6.7109375" customWidth="1"/>
     <col min="4" max="34" width="3.7109375" customWidth="1"/>
     <col min="35" max="36" width="9.7109375" customWidth="1"/>
-    <col min="37" max="37" width="8" customWidth="1"/>
+    <col min="37" max="37" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
-      <c r="AI2" s="8"/>
-      <c r="AJ2" s="8"/>
-      <c r="AK2" s="8"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
     </row>
     <row r="3" spans="2:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11"/>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="11"/>
-      <c r="AG3" s="11"/>
-      <c r="AH3" s="11"/>
-      <c r="AI3" s="12"/>
-      <c r="AJ3" s="12"/>
-      <c r="AK3" s="12"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="35"/>
+      <c r="AG3" s="35"/>
+      <c r="AH3" s="35"/>
+      <c r="AI3" s="36"/>
+      <c r="AJ3" s="36"/>
+      <c r="AK3" s="36"/>
     </row>
     <row r="4" spans="2:37" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14">
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="9">
         <v>1</v>
       </c>
-      <c r="E4" s="14">
-        <v>2</v>
-      </c>
-      <c r="F4" s="14">
-        <v>3</v>
-      </c>
-      <c r="G4" s="14">
-        <v>4</v>
-      </c>
-      <c r="H4" s="14">
-        <v>5</v>
-      </c>
-      <c r="I4" s="14">
-        <v>6</v>
-      </c>
-      <c r="J4" s="14">
-        <v>7</v>
-      </c>
-      <c r="K4" s="14">
+      <c r="E4" s="9">
+        <v>2</v>
+      </c>
+      <c r="F4" s="9">
+        <v>3</v>
+      </c>
+      <c r="G4" s="9">
+        <v>4</v>
+      </c>
+      <c r="H4" s="9">
+        <v>5</v>
+      </c>
+      <c r="I4" s="9">
+        <v>6</v>
+      </c>
+      <c r="J4" s="9">
+        <v>7</v>
+      </c>
+      <c r="K4" s="9">
         <v>8</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="9">
         <v>9</v>
       </c>
-      <c r="M4" s="14">
+      <c r="M4" s="9">
         <v>10</v>
       </c>
-      <c r="N4" s="14">
+      <c r="N4" s="9">
         <v>11</v>
       </c>
-      <c r="O4" s="14">
+      <c r="O4" s="9">
         <v>12</v>
       </c>
-      <c r="P4" s="14">
+      <c r="P4" s="9">
         <v>13</v>
       </c>
-      <c r="Q4" s="14">
+      <c r="Q4" s="9">
         <v>14</v>
       </c>
-      <c r="R4" s="14">
+      <c r="R4" s="9">
         <v>15</v>
       </c>
-      <c r="S4" s="14">
+      <c r="S4" s="9">
         <v>16</v>
       </c>
-      <c r="T4" s="14">
+      <c r="T4" s="9">
         <v>17</v>
       </c>
-      <c r="U4" s="14">
+      <c r="U4" s="9">
         <v>18</v>
       </c>
-      <c r="V4" s="14">
+      <c r="V4" s="9">
         <v>19</v>
       </c>
-      <c r="W4" s="14">
+      <c r="W4" s="9">
         <v>20</v>
       </c>
-      <c r="X4" s="14">
+      <c r="X4" s="9">
         <v>21</v>
       </c>
-      <c r="Y4" s="14">
+      <c r="Y4" s="9">
         <v>22</v>
       </c>
-      <c r="Z4" s="14">
+      <c r="Z4" s="9">
         <v>23</v>
       </c>
-      <c r="AA4" s="14">
+      <c r="AA4" s="9">
         <v>24</v>
       </c>
-      <c r="AB4" s="14">
+      <c r="AB4" s="9">
         <v>25</v>
       </c>
-      <c r="AC4" s="14">
+      <c r="AC4" s="9">
         <v>26</v>
       </c>
-      <c r="AD4" s="14">
+      <c r="AD4" s="9">
         <v>27</v>
       </c>
-      <c r="AE4" s="14">
+      <c r="AE4" s="9">
         <v>28</v>
       </c>
-      <c r="AF4" s="14">
+      <c r="AF4" s="9">
         <v>29</v>
       </c>
-      <c r="AG4" s="14">
+      <c r="AG4" s="9">
         <v>30</v>
       </c>
-      <c r="AH4" s="14">
+      <c r="AH4" s="9">
         <v>31</v>
       </c>
-      <c r="AI4" s="20" t="s">
+      <c r="AI4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="AJ4" s="20" t="s">
+      <c r="AJ4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="AK4" s="20" t="s">
+      <c r="AK4" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="10"/>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="10"/>
-      <c r="AG5" s="10"/>
-      <c r="AH5" s="10"/>
-      <c r="AI5" s="10"/>
-      <c r="AJ5" s="10"/>
-      <c r="AK5" s="10"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="8"/>
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="8"/>
+      <c r="AJ5" s="8"/>
+      <c r="AK5" s="8"/>
     </row>
     <row r="6" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="17"/>
-      <c r="AB6" s="17"/>
-      <c r="AC6" s="17"/>
-      <c r="AD6" s="17"/>
-      <c r="AE6" s="17"/>
-      <c r="AF6" s="17"/>
-      <c r="AG6" s="17"/>
-      <c r="AH6" s="17"/>
-      <c r="AI6" s="19"/>
-      <c r="AJ6" s="19"/>
-      <c r="AK6" s="19"/>
+      <c r="D6" s="11">
+        <v>2</v>
+      </c>
+      <c r="E6" s="11">
+        <v>6</v>
+      </c>
+      <c r="F6" s="11">
+        <v>7</v>
+      </c>
+      <c r="G6" s="11">
+        <v>6</v>
+      </c>
+      <c r="H6" s="11">
+        <v>6</v>
+      </c>
+      <c r="I6" s="11">
+        <v>7</v>
+      </c>
+      <c r="J6" s="11">
+        <v>2</v>
+      </c>
+      <c r="K6" s="11">
+        <v>6</v>
+      </c>
+      <c r="L6" s="11">
+        <v>3</v>
+      </c>
+      <c r="M6" s="11">
+        <v>3</v>
+      </c>
+      <c r="N6" s="11">
+        <v>7</v>
+      </c>
+      <c r="O6" s="11">
+        <v>7</v>
+      </c>
+      <c r="P6" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>7</v>
+      </c>
+      <c r="R6" s="11">
+        <v>3</v>
+      </c>
+      <c r="S6" s="11">
+        <v>6</v>
+      </c>
+      <c r="T6" s="11">
+        <v>3</v>
+      </c>
+      <c r="U6" s="11">
+        <v>5</v>
+      </c>
+      <c r="V6" s="11">
+        <v>7</v>
+      </c>
+      <c r="W6" s="11">
+        <v>7</v>
+      </c>
+      <c r="X6" s="11">
+        <v>3</v>
+      </c>
+      <c r="Y6" s="11">
+        <v>7</v>
+      </c>
+      <c r="Z6" s="11">
+        <v>2</v>
+      </c>
+      <c r="AA6" s="11">
+        <v>3</v>
+      </c>
+      <c r="AB6" s="11">
+        <v>5</v>
+      </c>
+      <c r="AC6" s="11">
+        <v>5</v>
+      </c>
+      <c r="AD6" s="11">
+        <v>2</v>
+      </c>
+      <c r="AE6" s="11">
+        <v>3</v>
+      </c>
+      <c r="AF6" s="11">
+        <v>3</v>
+      </c>
+      <c r="AG6" s="11">
+        <v>6</v>
+      </c>
+      <c r="AH6" s="11">
+        <v>4</v>
+      </c>
+      <c r="AI6" s="13">
+        <f>SUM(D6:AH6)</f>
+        <v>145</v>
+      </c>
+      <c r="AJ6" s="63">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AK6" s="63">
+        <f>AI6*AJ6</f>
+        <v>667</v>
+      </c>
     </row>
     <row r="7" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="17"/>
-      <c r="AC7" s="17"/>
-      <c r="AD7" s="17"/>
-      <c r="AE7" s="17"/>
-      <c r="AF7" s="17"/>
-      <c r="AG7" s="17"/>
-      <c r="AH7" s="17"/>
-      <c r="AI7" s="19"/>
-      <c r="AJ7" s="19"/>
-      <c r="AK7" s="19"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="11">
+        <v>2</v>
+      </c>
+      <c r="E7" s="11">
+        <v>4</v>
+      </c>
+      <c r="F7" s="11">
+        <v>7</v>
+      </c>
+      <c r="G7" s="11">
+        <v>5</v>
+      </c>
+      <c r="H7" s="11">
+        <v>7</v>
+      </c>
+      <c r="I7" s="11">
+        <v>5</v>
+      </c>
+      <c r="J7" s="11">
+        <v>5</v>
+      </c>
+      <c r="K7" s="11">
+        <v>6</v>
+      </c>
+      <c r="L7" s="11">
+        <v>4</v>
+      </c>
+      <c r="M7" s="11">
+        <v>3</v>
+      </c>
+      <c r="N7" s="11">
+        <v>7</v>
+      </c>
+      <c r="O7" s="11">
+        <v>5</v>
+      </c>
+      <c r="P7" s="11">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>2</v>
+      </c>
+      <c r="R7" s="11">
+        <v>4</v>
+      </c>
+      <c r="S7" s="11">
+        <v>5</v>
+      </c>
+      <c r="T7" s="11">
+        <v>4</v>
+      </c>
+      <c r="U7" s="11">
+        <v>2</v>
+      </c>
+      <c r="V7" s="11">
+        <v>4</v>
+      </c>
+      <c r="W7" s="11">
+        <v>4</v>
+      </c>
+      <c r="X7" s="11">
+        <v>7</v>
+      </c>
+      <c r="Y7" s="11">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="11">
+        <v>5</v>
+      </c>
+      <c r="AA7" s="11">
+        <v>2</v>
+      </c>
+      <c r="AB7" s="11">
+        <v>4</v>
+      </c>
+      <c r="AC7" s="11">
+        <v>5</v>
+      </c>
+      <c r="AD7" s="11">
+        <v>7</v>
+      </c>
+      <c r="AE7" s="11">
+        <v>2</v>
+      </c>
+      <c r="AF7" s="11">
+        <v>5</v>
+      </c>
+      <c r="AG7" s="11">
+        <v>6</v>
+      </c>
+      <c r="AH7" s="11">
+        <v>2</v>
+      </c>
+      <c r="AI7" s="13">
+        <f t="shared" ref="AI7:AI10" si="0">SUM(D7:AH7)</f>
+        <v>138</v>
+      </c>
+      <c r="AJ7" s="63">
+        <v>3.14</v>
+      </c>
+      <c r="AK7" s="63">
+        <f t="shared" ref="AK7:AK10" si="1">AI7*AJ7</f>
+        <v>433.32</v>
+      </c>
     </row>
     <row r="8" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="17"/>
-      <c r="AB8" s="17"/>
-      <c r="AC8" s="17"/>
-      <c r="AD8" s="17"/>
-      <c r="AE8" s="17"/>
-      <c r="AF8" s="17"/>
-      <c r="AG8" s="17"/>
-      <c r="AH8" s="17"/>
-      <c r="AI8" s="19"/>
-      <c r="AJ8" s="19"/>
-      <c r="AK8" s="19"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="11">
+        <v>4</v>
+      </c>
+      <c r="E8" s="11">
+        <v>5</v>
+      </c>
+      <c r="F8" s="11">
+        <v>7</v>
+      </c>
+      <c r="G8" s="11">
+        <v>5</v>
+      </c>
+      <c r="H8" s="11">
+        <v>5</v>
+      </c>
+      <c r="I8" s="11">
+        <v>6</v>
+      </c>
+      <c r="J8" s="11">
+        <v>3</v>
+      </c>
+      <c r="K8" s="11">
+        <v>3</v>
+      </c>
+      <c r="L8" s="11">
+        <v>5</v>
+      </c>
+      <c r="M8" s="11">
+        <v>7</v>
+      </c>
+      <c r="N8" s="11">
+        <v>2</v>
+      </c>
+      <c r="O8" s="11">
+        <v>4</v>
+      </c>
+      <c r="P8" s="11">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>5</v>
+      </c>
+      <c r="R8" s="11">
+        <v>2</v>
+      </c>
+      <c r="S8" s="11">
+        <v>4</v>
+      </c>
+      <c r="T8" s="11">
+        <v>3</v>
+      </c>
+      <c r="U8" s="11">
+        <v>4</v>
+      </c>
+      <c r="V8" s="11">
+        <v>6</v>
+      </c>
+      <c r="W8" s="11">
+        <v>2</v>
+      </c>
+      <c r="X8" s="11">
+        <v>7</v>
+      </c>
+      <c r="Y8" s="11">
+        <v>3</v>
+      </c>
+      <c r="Z8" s="11">
+        <v>2</v>
+      </c>
+      <c r="AA8" s="11">
+        <v>7</v>
+      </c>
+      <c r="AB8" s="11">
+        <v>3</v>
+      </c>
+      <c r="AC8" s="11">
+        <v>2</v>
+      </c>
+      <c r="AD8" s="11">
+        <v>6</v>
+      </c>
+      <c r="AE8" s="11">
+        <v>3</v>
+      </c>
+      <c r="AF8" s="11">
+        <v>2</v>
+      </c>
+      <c r="AG8" s="11">
+        <v>6</v>
+      </c>
+      <c r="AH8" s="11">
+        <v>6</v>
+      </c>
+      <c r="AI8" s="13">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="AJ8" s="63">
+        <v>6.4</v>
+      </c>
+      <c r="AK8" s="63">
+        <f t="shared" si="1"/>
+        <v>844.80000000000007</v>
+      </c>
     </row>
     <row r="9" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="17"/>
-      <c r="AA9" s="17"/>
-      <c r="AB9" s="17"/>
-      <c r="AC9" s="17"/>
-      <c r="AD9" s="17"/>
-      <c r="AE9" s="17"/>
-      <c r="AF9" s="17"/>
-      <c r="AG9" s="17"/>
-      <c r="AH9" s="17"/>
-      <c r="AI9" s="19"/>
-      <c r="AJ9" s="19"/>
-      <c r="AK9" s="19"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="11">
+        <v>3</v>
+      </c>
+      <c r="E9" s="11">
+        <v>3</v>
+      </c>
+      <c r="F9" s="11">
+        <v>6</v>
+      </c>
+      <c r="G9" s="11">
+        <v>5</v>
+      </c>
+      <c r="H9" s="11">
+        <v>2</v>
+      </c>
+      <c r="I9" s="11">
+        <v>4</v>
+      </c>
+      <c r="J9" s="11">
+        <v>4</v>
+      </c>
+      <c r="K9" s="11">
+        <v>7</v>
+      </c>
+      <c r="L9" s="11">
+        <v>4</v>
+      </c>
+      <c r="M9" s="11">
+        <v>4</v>
+      </c>
+      <c r="N9" s="11">
+        <v>6</v>
+      </c>
+      <c r="O9" s="11">
+        <v>5</v>
+      </c>
+      <c r="P9" s="11">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>4</v>
+      </c>
+      <c r="R9" s="11">
+        <v>5</v>
+      </c>
+      <c r="S9" s="11">
+        <v>3</v>
+      </c>
+      <c r="T9" s="11">
+        <v>4</v>
+      </c>
+      <c r="U9" s="11">
+        <v>7</v>
+      </c>
+      <c r="V9" s="11">
+        <v>6</v>
+      </c>
+      <c r="W9" s="11">
+        <v>2</v>
+      </c>
+      <c r="X9" s="11">
+        <v>3</v>
+      </c>
+      <c r="Y9" s="11">
+        <v>5</v>
+      </c>
+      <c r="Z9" s="11">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="11">
+        <v>6</v>
+      </c>
+      <c r="AB9" s="11">
+        <v>7</v>
+      </c>
+      <c r="AC9" s="11">
+        <v>5</v>
+      </c>
+      <c r="AD9" s="11">
+        <v>3</v>
+      </c>
+      <c r="AE9" s="11">
+        <v>2</v>
+      </c>
+      <c r="AF9" s="11">
+        <v>6</v>
+      </c>
+      <c r="AG9" s="11">
+        <v>7</v>
+      </c>
+      <c r="AH9" s="11">
+        <v>6</v>
+      </c>
+      <c r="AI9" s="13">
+        <f t="shared" si="0"/>
+        <v>142</v>
+      </c>
+      <c r="AJ9" s="63">
+        <v>2.75</v>
+      </c>
+      <c r="AK9" s="63">
+        <f t="shared" si="1"/>
+        <v>390.5</v>
+      </c>
     </row>
     <row r="10" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="17"/>
-      <c r="AB10" s="17"/>
-      <c r="AC10" s="17"/>
-      <c r="AD10" s="17"/>
-      <c r="AE10" s="17"/>
-      <c r="AF10" s="17"/>
-      <c r="AG10" s="17"/>
-      <c r="AH10" s="17"/>
-      <c r="AI10" s="19"/>
-      <c r="AJ10" s="19"/>
-      <c r="AK10" s="19"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="11">
+        <v>2</v>
+      </c>
+      <c r="E10" s="11">
+        <v>2</v>
+      </c>
+      <c r="F10" s="11">
+        <v>6</v>
+      </c>
+      <c r="G10" s="11">
+        <v>7</v>
+      </c>
+      <c r="H10" s="11">
+        <v>6</v>
+      </c>
+      <c r="I10" s="11">
+        <v>3</v>
+      </c>
+      <c r="J10" s="11">
+        <v>4</v>
+      </c>
+      <c r="K10" s="11">
+        <v>5</v>
+      </c>
+      <c r="L10" s="11">
+        <v>2</v>
+      </c>
+      <c r="M10" s="11">
+        <v>6</v>
+      </c>
+      <c r="N10" s="11">
+        <v>4</v>
+      </c>
+      <c r="O10" s="11">
+        <v>5</v>
+      </c>
+      <c r="P10" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>2</v>
+      </c>
+      <c r="R10" s="11">
+        <v>4</v>
+      </c>
+      <c r="S10" s="11">
+        <v>2</v>
+      </c>
+      <c r="T10" s="11">
+        <v>4</v>
+      </c>
+      <c r="U10" s="11">
+        <v>5</v>
+      </c>
+      <c r="V10" s="11">
+        <v>5</v>
+      </c>
+      <c r="W10" s="11">
+        <v>6</v>
+      </c>
+      <c r="X10" s="11">
+        <v>6</v>
+      </c>
+      <c r="Y10" s="11">
+        <v>7</v>
+      </c>
+      <c r="Z10" s="11">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="11">
+        <v>4</v>
+      </c>
+      <c r="AB10" s="11">
+        <v>3</v>
+      </c>
+      <c r="AC10" s="11">
+        <v>7</v>
+      </c>
+      <c r="AD10" s="11">
+        <v>7</v>
+      </c>
+      <c r="AE10" s="11">
+        <v>2</v>
+      </c>
+      <c r="AF10" s="11">
+        <v>7</v>
+      </c>
+      <c r="AG10" s="11">
+        <v>6</v>
+      </c>
+      <c r="AH10" s="11">
+        <v>5</v>
+      </c>
+      <c r="AI10" s="13">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="AJ10" s="63">
+        <v>4</v>
+      </c>
+      <c r="AK10" s="63">
+        <f t="shared" si="1"/>
+        <v>564</v>
+      </c>
     </row>
     <row r="11" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="10"/>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="10"/>
-      <c r="AG11" s="10"/>
-      <c r="AH11" s="10"/>
-      <c r="AI11" s="10"/>
-      <c r="AJ11" s="10"/>
-      <c r="AK11" s="10"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8"/>
+      <c r="AK11" s="8"/>
     </row>
     <row r="12" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="17"/>
-      <c r="AC12" s="17"/>
-      <c r="AD12" s="17"/>
-      <c r="AE12" s="17"/>
-      <c r="AF12" s="17"/>
-      <c r="AG12" s="17"/>
-      <c r="AH12" s="17"/>
-      <c r="AI12" s="19"/>
-      <c r="AJ12" s="19"/>
-      <c r="AK12" s="19"/>
+      <c r="D12" s="11">
+        <v>9</v>
+      </c>
+      <c r="E12" s="11">
+        <v>4</v>
+      </c>
+      <c r="F12" s="11">
+        <v>6</v>
+      </c>
+      <c r="G12" s="11">
+        <v>1</v>
+      </c>
+      <c r="H12" s="11">
+        <v>4</v>
+      </c>
+      <c r="I12" s="11">
+        <v>6</v>
+      </c>
+      <c r="J12" s="11">
+        <v>4</v>
+      </c>
+      <c r="K12" s="11">
+        <v>4</v>
+      </c>
+      <c r="L12" s="11">
+        <v>4</v>
+      </c>
+      <c r="M12" s="11">
+        <v>9</v>
+      </c>
+      <c r="N12" s="11">
+        <v>1</v>
+      </c>
+      <c r="O12" s="11">
+        <v>8</v>
+      </c>
+      <c r="P12" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>9</v>
+      </c>
+      <c r="R12" s="11">
+        <v>8</v>
+      </c>
+      <c r="S12" s="11">
+        <v>5</v>
+      </c>
+      <c r="T12" s="11">
+        <v>6</v>
+      </c>
+      <c r="U12" s="11">
+        <v>4</v>
+      </c>
+      <c r="V12" s="11">
+        <v>4</v>
+      </c>
+      <c r="W12" s="11">
+        <v>8</v>
+      </c>
+      <c r="X12" s="11">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="11">
+        <v>8</v>
+      </c>
+      <c r="Z12" s="11">
+        <v>2</v>
+      </c>
+      <c r="AA12" s="11">
+        <v>4</v>
+      </c>
+      <c r="AB12" s="11">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="11">
+        <v>5</v>
+      </c>
+      <c r="AD12" s="11">
+        <v>8</v>
+      </c>
+      <c r="AE12" s="11">
+        <v>4</v>
+      </c>
+      <c r="AF12" s="11">
+        <v>3</v>
+      </c>
+      <c r="AG12" s="11">
+        <v>7</v>
+      </c>
+      <c r="AH12" s="11">
+        <v>2</v>
+      </c>
+      <c r="AI12" s="13">
+        <f>SUM(D12:AH12)</f>
+        <v>157</v>
+      </c>
+      <c r="AJ12" s="63">
+        <v>5.2</v>
+      </c>
+      <c r="AK12" s="63">
+        <f>AI12*AJ12</f>
+        <v>816.4</v>
+      </c>
     </row>
     <row r="13" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="17"/>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="17"/>
-      <c r="AF13" s="17"/>
-      <c r="AG13" s="17"/>
-      <c r="AH13" s="17"/>
-      <c r="AI13" s="19"/>
-      <c r="AJ13" s="19"/>
-      <c r="AK13" s="19"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="11">
+        <v>7</v>
+      </c>
+      <c r="E13" s="11">
+        <v>9</v>
+      </c>
+      <c r="F13" s="11">
+        <v>2</v>
+      </c>
+      <c r="G13" s="11">
+        <v>4</v>
+      </c>
+      <c r="H13" s="11">
+        <v>8</v>
+      </c>
+      <c r="I13" s="11">
+        <v>7</v>
+      </c>
+      <c r="J13" s="11">
+        <v>8</v>
+      </c>
+      <c r="K13" s="11">
+        <v>6</v>
+      </c>
+      <c r="L13" s="11">
+        <v>3</v>
+      </c>
+      <c r="M13" s="11">
+        <v>8</v>
+      </c>
+      <c r="N13" s="11">
+        <v>9</v>
+      </c>
+      <c r="O13" s="11">
+        <v>1</v>
+      </c>
+      <c r="P13" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>3</v>
+      </c>
+      <c r="R13" s="11">
+        <v>2</v>
+      </c>
+      <c r="S13" s="11">
+        <v>7</v>
+      </c>
+      <c r="T13" s="11">
+        <v>4</v>
+      </c>
+      <c r="U13" s="11">
+        <v>1</v>
+      </c>
+      <c r="V13" s="11">
+        <v>9</v>
+      </c>
+      <c r="W13" s="11">
+        <v>3</v>
+      </c>
+      <c r="X13" s="11">
+        <v>8</v>
+      </c>
+      <c r="Y13" s="11">
+        <v>2</v>
+      </c>
+      <c r="Z13" s="11">
+        <v>2</v>
+      </c>
+      <c r="AA13" s="11">
+        <v>7</v>
+      </c>
+      <c r="AB13" s="11">
+        <v>7</v>
+      </c>
+      <c r="AC13" s="11">
+        <v>8</v>
+      </c>
+      <c r="AD13" s="11">
+        <v>7</v>
+      </c>
+      <c r="AE13" s="11">
+        <v>7</v>
+      </c>
+      <c r="AF13" s="11">
+        <v>2</v>
+      </c>
+      <c r="AG13" s="11">
+        <v>2</v>
+      </c>
+      <c r="AH13" s="11">
+        <v>8</v>
+      </c>
+      <c r="AI13" s="13">
+        <f t="shared" ref="AI13:AI16" si="2">SUM(D13:AH13)</f>
+        <v>163</v>
+      </c>
+      <c r="AJ13" s="63">
+        <v>3.67</v>
+      </c>
+      <c r="AK13" s="63">
+        <f t="shared" ref="AK13:AK16" si="3">AI13*AJ13</f>
+        <v>598.21</v>
+      </c>
     </row>
     <row r="14" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="17"/>
-      <c r="AA14" s="17"/>
-      <c r="AB14" s="17"/>
-      <c r="AC14" s="17"/>
-      <c r="AD14" s="17"/>
-      <c r="AE14" s="17"/>
-      <c r="AF14" s="17"/>
-      <c r="AG14" s="17"/>
-      <c r="AH14" s="17"/>
-      <c r="AI14" s="19"/>
-      <c r="AJ14" s="19"/>
-      <c r="AK14" s="19"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="11">
+        <v>2</v>
+      </c>
+      <c r="E14" s="11">
+        <v>1</v>
+      </c>
+      <c r="F14" s="11">
+        <v>6</v>
+      </c>
+      <c r="G14" s="11">
+        <v>6</v>
+      </c>
+      <c r="H14" s="11">
+        <v>7</v>
+      </c>
+      <c r="I14" s="11">
+        <v>6</v>
+      </c>
+      <c r="J14" s="11">
+        <v>1</v>
+      </c>
+      <c r="K14" s="11">
+        <v>9</v>
+      </c>
+      <c r="L14" s="11">
+        <v>9</v>
+      </c>
+      <c r="M14" s="11">
+        <v>9</v>
+      </c>
+      <c r="N14" s="11">
+        <v>2</v>
+      </c>
+      <c r="O14" s="11">
+        <v>2</v>
+      </c>
+      <c r="P14" s="11">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>1</v>
+      </c>
+      <c r="R14" s="11">
+        <v>8</v>
+      </c>
+      <c r="S14" s="11">
+        <v>6</v>
+      </c>
+      <c r="T14" s="11">
+        <v>1</v>
+      </c>
+      <c r="U14" s="11">
+        <v>1</v>
+      </c>
+      <c r="V14" s="11">
+        <v>3</v>
+      </c>
+      <c r="W14" s="11">
+        <v>3</v>
+      </c>
+      <c r="X14" s="11">
+        <v>9</v>
+      </c>
+      <c r="Y14" s="11">
+        <v>8</v>
+      </c>
+      <c r="Z14" s="11">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="11">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="11">
+        <v>2</v>
+      </c>
+      <c r="AC14" s="11">
+        <v>9</v>
+      </c>
+      <c r="AD14" s="11">
+        <v>5</v>
+      </c>
+      <c r="AE14" s="11">
+        <v>3</v>
+      </c>
+      <c r="AF14" s="11">
+        <v>8</v>
+      </c>
+      <c r="AG14" s="11">
+        <v>4</v>
+      </c>
+      <c r="AH14" s="11">
+        <v>6</v>
+      </c>
+      <c r="AI14" s="13">
+        <f t="shared" si="2"/>
+        <v>146</v>
+      </c>
+      <c r="AJ14" s="63">
+        <v>6.85</v>
+      </c>
+      <c r="AK14" s="63">
+        <f t="shared" si="3"/>
+        <v>1000.0999999999999</v>
+      </c>
     </row>
     <row r="15" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="17"/>
-      <c r="Y15" s="17"/>
-      <c r="Z15" s="17"/>
-      <c r="AA15" s="17"/>
-      <c r="AB15" s="17"/>
-      <c r="AC15" s="17"/>
-      <c r="AD15" s="17"/>
-      <c r="AE15" s="17"/>
-      <c r="AF15" s="17"/>
-      <c r="AG15" s="17"/>
-      <c r="AH15" s="17"/>
-      <c r="AI15" s="19"/>
-      <c r="AJ15" s="19"/>
-      <c r="AK15" s="19"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="11">
+        <v>7</v>
+      </c>
+      <c r="E15" s="11">
+        <v>3</v>
+      </c>
+      <c r="F15" s="11">
+        <v>7</v>
+      </c>
+      <c r="G15" s="11">
+        <v>6</v>
+      </c>
+      <c r="H15" s="11">
+        <v>3</v>
+      </c>
+      <c r="I15" s="11">
+        <v>5</v>
+      </c>
+      <c r="J15" s="11">
+        <v>9</v>
+      </c>
+      <c r="K15" s="11">
+        <v>2</v>
+      </c>
+      <c r="L15" s="11">
+        <v>6</v>
+      </c>
+      <c r="M15" s="11">
+        <v>7</v>
+      </c>
+      <c r="N15" s="11">
+        <v>5</v>
+      </c>
+      <c r="O15" s="11">
+        <v>4</v>
+      </c>
+      <c r="P15" s="11">
+        <v>9</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>9</v>
+      </c>
+      <c r="R15" s="11">
+        <v>8</v>
+      </c>
+      <c r="S15" s="11">
+        <v>1</v>
+      </c>
+      <c r="T15" s="11">
+        <v>9</v>
+      </c>
+      <c r="U15" s="11">
+        <v>5</v>
+      </c>
+      <c r="V15" s="11">
+        <v>6</v>
+      </c>
+      <c r="W15" s="11">
+        <v>9</v>
+      </c>
+      <c r="X15" s="11">
+        <v>2</v>
+      </c>
+      <c r="Y15" s="11">
+        <v>8</v>
+      </c>
+      <c r="Z15" s="11">
+        <v>5</v>
+      </c>
+      <c r="AA15" s="11">
+        <v>5</v>
+      </c>
+      <c r="AB15" s="11">
+        <v>6</v>
+      </c>
+      <c r="AC15" s="11">
+        <v>9</v>
+      </c>
+      <c r="AD15" s="11">
+        <v>4</v>
+      </c>
+      <c r="AE15" s="11">
+        <v>2</v>
+      </c>
+      <c r="AF15" s="11">
+        <v>6</v>
+      </c>
+      <c r="AG15" s="11">
+        <v>7</v>
+      </c>
+      <c r="AH15" s="11">
+        <v>3</v>
+      </c>
+      <c r="AI15" s="13">
+        <f t="shared" si="2"/>
+        <v>177</v>
+      </c>
+      <c r="AJ15" s="63">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="AK15" s="63">
+        <f t="shared" si="3"/>
+        <v>748.71</v>
+      </c>
     </row>
     <row r="16" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="17"/>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="17"/>
-      <c r="Z16" s="17"/>
-      <c r="AA16" s="17"/>
-      <c r="AB16" s="17"/>
-      <c r="AC16" s="17"/>
-      <c r="AD16" s="17"/>
-      <c r="AE16" s="17"/>
-      <c r="AF16" s="17"/>
-      <c r="AG16" s="17"/>
-      <c r="AH16" s="17"/>
-      <c r="AI16" s="19"/>
-      <c r="AJ16" s="19"/>
-      <c r="AK16" s="19"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="11">
+        <v>7</v>
+      </c>
+      <c r="E16" s="11">
+        <v>6</v>
+      </c>
+      <c r="F16" s="11">
+        <v>2</v>
+      </c>
+      <c r="G16" s="11">
+        <v>7</v>
+      </c>
+      <c r="H16" s="11">
+        <v>4</v>
+      </c>
+      <c r="I16" s="11">
+        <v>1</v>
+      </c>
+      <c r="J16" s="11">
+        <v>8</v>
+      </c>
+      <c r="K16" s="11">
+        <v>1</v>
+      </c>
+      <c r="L16" s="11">
+        <v>6</v>
+      </c>
+      <c r="M16" s="11">
+        <v>3</v>
+      </c>
+      <c r="N16" s="11">
+        <v>5</v>
+      </c>
+      <c r="O16" s="11">
+        <v>6</v>
+      </c>
+      <c r="P16" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="11">
+        <v>7</v>
+      </c>
+      <c r="R16" s="11">
+        <v>7</v>
+      </c>
+      <c r="S16" s="11">
+        <v>9</v>
+      </c>
+      <c r="T16" s="11">
+        <v>9</v>
+      </c>
+      <c r="U16" s="11">
+        <v>2</v>
+      </c>
+      <c r="V16" s="11">
+        <v>1</v>
+      </c>
+      <c r="W16" s="11">
+        <v>4</v>
+      </c>
+      <c r="X16" s="11">
+        <v>8</v>
+      </c>
+      <c r="Y16" s="11">
+        <v>8</v>
+      </c>
+      <c r="Z16" s="11">
+        <v>5</v>
+      </c>
+      <c r="AA16" s="11">
+        <v>5</v>
+      </c>
+      <c r="AB16" s="11">
+        <v>3</v>
+      </c>
+      <c r="AC16" s="11">
+        <v>9</v>
+      </c>
+      <c r="AD16" s="11">
+        <v>2</v>
+      </c>
+      <c r="AE16" s="11">
+        <v>7</v>
+      </c>
+      <c r="AF16" s="11">
+        <v>6</v>
+      </c>
+      <c r="AG16" s="11">
+        <v>6</v>
+      </c>
+      <c r="AH16" s="11">
+        <v>8</v>
+      </c>
+      <c r="AI16" s="13">
+        <f t="shared" si="2"/>
+        <v>163</v>
+      </c>
+      <c r="AJ16" s="63">
+        <v>3.45</v>
+      </c>
+      <c r="AK16" s="63">
+        <f t="shared" si="3"/>
+        <v>562.35</v>
+      </c>
     </row>
     <row r="17" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B17" s="21"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="22"/>
-      <c r="W17" s="22"/>
-      <c r="X17" s="22"/>
-      <c r="Y17" s="22"/>
-      <c r="Z17" s="22"/>
-      <c r="AA17" s="22"/>
-      <c r="AB17" s="22"/>
-      <c r="AC17" s="22"/>
-      <c r="AD17" s="22"/>
-      <c r="AE17" s="22"/>
-      <c r="AF17" s="22"/>
-      <c r="AG17" s="22"/>
-      <c r="AH17" s="23"/>
-      <c r="AI17" s="16"/>
-      <c r="AJ17" s="10" t="s">
+      <c r="B17" s="39"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="40"/>
+      <c r="X17" s="40"/>
+      <c r="Y17" s="40"/>
+      <c r="Z17" s="40"/>
+      <c r="AA17" s="40"/>
+      <c r="AB17" s="40"/>
+      <c r="AC17" s="40"/>
+      <c r="AD17" s="40"/>
+      <c r="AE17" s="40"/>
+      <c r="AF17" s="40"/>
+      <c r="AG17" s="40"/>
+      <c r="AH17" s="41"/>
+      <c r="AI17" s="10"/>
+      <c r="AJ17" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="AK17" s="10"/>
+      <c r="AK17" s="64">
+        <f>SUM(AK6:AK10,AK12:AK16)</f>
+        <v>6625.39</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="B17:AH17"/>
     <mergeCell ref="B2:AK2"/>
     <mergeCell ref="D3:AH3"/>
     <mergeCell ref="AI3:AK3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="C6:C10"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="B17:AH17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2000,8 +2722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2011,88 +2733,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:5" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>5000</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>2000</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>1500</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>2000</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
         <v>9000</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>6000</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>4000</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>5000</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
         <v>1500</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>500</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>600</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>1500</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="A6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6">
+        <f>SUM(B3:B5)</f>
+        <v>15500</v>
+      </c>
+      <c r="C6" s="6">
+        <f t="shared" ref="C6:E6" si="0">SUM(C3:C5)</f>
+        <v>8500</v>
+      </c>
+      <c r="D6" s="6">
+        <f t="shared" si="0"/>
+        <v>6100</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
+        <v>8500</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -2110,7 +2844,7 @@
   </sheetPr>
   <dimension ref="C5:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18:F18"/>
     </sheetView>
   </sheetViews>
@@ -2123,174 +2857,174 @@
   <sheetData>
     <row r="5" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="55"/>
-    </row>
-    <row r="7" spans="3:6" s="52" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="56" t="s">
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="45"/>
+    </row>
+    <row r="7" spans="3:6" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="57" t="s">
+      <c r="E7" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="58" t="s">
+      <c r="F7" s="30" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C8" s="59">
+      <c r="C8" s="31">
         <v>1</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="60" t="s">
+      <c r="E8" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="61">
+      <c r="F8" s="33">
         <v>37013</v>
       </c>
     </row>
     <row r="9" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C9" s="59">
-        <v>2</v>
-      </c>
-      <c r="D9" s="60" t="s">
+      <c r="C9" s="31">
+        <v>2</v>
+      </c>
+      <c r="D9" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="60" t="s">
+      <c r="E9" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="61">
+      <c r="F9" s="33">
         <v>37519</v>
       </c>
     </row>
     <row r="10" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C10" s="59">
-        <v>3</v>
-      </c>
-      <c r="D10" s="60" t="s">
+      <c r="C10" s="31">
+        <v>3</v>
+      </c>
+      <c r="D10" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="60" t="s">
+      <c r="E10" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="61">
+      <c r="F10" s="33">
         <v>37597</v>
       </c>
     </row>
     <row r="11" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C11" s="59">
-        <v>4</v>
-      </c>
-      <c r="D11" s="60" t="s">
+      <c r="C11" s="31">
+        <v>4</v>
+      </c>
+      <c r="D11" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="60" t="s">
+      <c r="E11" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="61">
+      <c r="F11" s="33">
         <v>36964</v>
       </c>
     </row>
     <row r="12" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C12" s="59">
-        <v>5</v>
-      </c>
-      <c r="D12" s="60" t="s">
+      <c r="C12" s="31">
+        <v>5</v>
+      </c>
+      <c r="D12" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="60" t="s">
+      <c r="E12" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="61">
+      <c r="F12" s="33">
         <v>37414</v>
       </c>
     </row>
     <row r="13" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C13" s="59">
-        <v>6</v>
-      </c>
-      <c r="D13" s="60" t="s">
+      <c r="C13" s="31">
+        <v>6</v>
+      </c>
+      <c r="D13" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="60" t="s">
+      <c r="E13" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="61">
+      <c r="F13" s="33">
         <v>37446</v>
       </c>
     </row>
     <row r="14" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C14" s="59">
-        <v>7</v>
-      </c>
-      <c r="D14" s="60" t="s">
+      <c r="C14" s="31">
+        <v>7</v>
+      </c>
+      <c r="D14" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="60" t="s">
+      <c r="E14" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="61">
+      <c r="F14" s="33">
         <v>37590</v>
       </c>
     </row>
     <row r="15" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C15" s="59">
+      <c r="C15" s="31">
         <v>8</v>
       </c>
-      <c r="D15" s="60" t="s">
+      <c r="D15" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="60" t="s">
+      <c r="E15" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="61">
+      <c r="F15" s="33">
         <v>37129</v>
       </c>
     </row>
     <row r="16" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C16" s="59">
+      <c r="C16" s="31">
         <v>9</v>
       </c>
-      <c r="D16" s="60" t="s">
+      <c r="D16" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="60" t="s">
+      <c r="E16" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="F16" s="61">
+      <c r="F16" s="33">
         <v>37334</v>
       </c>
     </row>
     <row r="17" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C17" s="59">
+      <c r="C17" s="31">
         <v>10</v>
       </c>
-      <c r="D17" s="60" t="s">
+      <c r="D17" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="60" t="s">
+      <c r="E17" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="F17" s="61">
+      <c r="F17" s="33">
         <v>37546</v>
       </c>
     </row>
     <row r="18" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="62" t="s">
+      <c r="C18" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="64"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2303,10 +3037,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H17"/>
+  <dimension ref="B1:H20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2316,250 +3050,385 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="51"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="30"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="36" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37" t="s">
+      <c r="F3" s="52"/>
+      <c r="G3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="38">
+      <c r="H3" s="17">
         <v>1.2</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="33"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="39" t="s">
+      <c r="B4" s="57"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="40" t="s">
+      <c r="F4" s="53"/>
+      <c r="G4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="41">
+      <c r="H4" s="19">
         <v>1.7</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="51" t="s">
+      <c r="H5" s="26" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="43">
+      <c r="B6" s="60">
         <v>2008</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="8">
         <v>1234</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="8">
         <v>1186</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="27"/>
+      <c r="F6" s="64">
+        <f>(D6-E6)*$H$3</f>
+        <v>57.599999999999994</v>
+      </c>
+      <c r="G6" s="64">
+        <f>(D6-E6)*$H$4</f>
+        <v>81.599999999999994</v>
+      </c>
+      <c r="H6" s="66">
+        <f>(D6-E6)/(30*24)</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="44"/>
-      <c r="C7" s="47" t="s">
+      <c r="B7" s="61"/>
+      <c r="C7" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="8">
         <v>1321</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="8">
         <v>1234</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="27"/>
+      <c r="F7" s="64">
+        <f t="shared" ref="F7:F17" si="0">(D7-E7)*$H$3</f>
+        <v>104.39999999999999</v>
+      </c>
+      <c r="G7" s="64">
+        <f t="shared" ref="G7:G17" si="1">(D7-E7)*$H$4</f>
+        <v>147.9</v>
+      </c>
+      <c r="H7" s="66">
+        <f t="shared" ref="H7:H17" si="2">(D7-E7)/(30*24)</f>
+        <v>0.12083333333333333</v>
+      </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="44"/>
-      <c r="C8" s="47" t="s">
+      <c r="B8" s="61"/>
+      <c r="C8" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="8">
         <v>1398</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="8">
         <v>1282</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="27"/>
+      <c r="F8" s="64">
+        <f t="shared" si="0"/>
+        <v>139.19999999999999</v>
+      </c>
+      <c r="G8" s="64">
+        <f t="shared" si="1"/>
+        <v>197.2</v>
+      </c>
+      <c r="H8" s="66">
+        <f t="shared" si="2"/>
+        <v>0.16111111111111112</v>
+      </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="44"/>
-      <c r="C9" s="47" t="s">
+      <c r="B9" s="61"/>
+      <c r="C9" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="8">
         <v>1432</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="8">
         <v>1330</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="27"/>
+      <c r="F9" s="64">
+        <f t="shared" si="0"/>
+        <v>122.39999999999999</v>
+      </c>
+      <c r="G9" s="64">
+        <f t="shared" si="1"/>
+        <v>173.4</v>
+      </c>
+      <c r="H9" s="66">
+        <f t="shared" si="2"/>
+        <v>0.14166666666666666</v>
+      </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="44"/>
-      <c r="C10" s="47" t="s">
+      <c r="B10" s="61"/>
+      <c r="C10" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="8">
         <v>1504</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="8">
         <v>1378</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="27"/>
+      <c r="F10" s="64">
+        <f t="shared" si="0"/>
+        <v>151.19999999999999</v>
+      </c>
+      <c r="G10" s="64">
+        <f t="shared" si="1"/>
+        <v>214.2</v>
+      </c>
+      <c r="H10" s="66">
+        <f t="shared" si="2"/>
+        <v>0.17499999999999999</v>
+      </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="44"/>
-      <c r="C11" s="47" t="s">
+      <c r="B11" s="61"/>
+      <c r="C11" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="8">
         <v>1548</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="8">
         <v>1426</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="27"/>
+      <c r="F11" s="64">
+        <f t="shared" si="0"/>
+        <v>146.4</v>
+      </c>
+      <c r="G11" s="64">
+        <f t="shared" si="1"/>
+        <v>207.4</v>
+      </c>
+      <c r="H11" s="66">
+        <f t="shared" si="2"/>
+        <v>0.16944444444444445</v>
+      </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="44"/>
-      <c r="C12" s="47" t="s">
+      <c r="B12" s="61"/>
+      <c r="C12" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="8">
         <v>1597</v>
       </c>
-      <c r="E12" s="10">
-        <v>1620</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="27"/>
+      <c r="E12" s="8">
+        <v>1521</v>
+      </c>
+      <c r="F12" s="64">
+        <f t="shared" si="0"/>
+        <v>91.2</v>
+      </c>
+      <c r="G12" s="64">
+        <f t="shared" si="1"/>
+        <v>129.19999999999999</v>
+      </c>
+      <c r="H12" s="66">
+        <f t="shared" si="2"/>
+        <v>0.10555555555555556</v>
+      </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="44"/>
-      <c r="C13" s="47" t="s">
+      <c r="B13" s="61"/>
+      <c r="C13" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="8">
         <v>1621</v>
       </c>
-      <c r="E13" s="10">
-        <v>1674</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="27"/>
+      <c r="E13" s="8">
+        <v>1576</v>
+      </c>
+      <c r="F13" s="64">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="G13" s="64">
+        <f t="shared" si="1"/>
+        <v>76.5</v>
+      </c>
+      <c r="H13" s="66">
+        <f t="shared" si="2"/>
+        <v>6.25E-2</v>
+      </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="44"/>
-      <c r="C14" s="47" t="s">
+      <c r="B14" s="61"/>
+      <c r="C14" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="8">
         <v>1679</v>
       </c>
-      <c r="E14" s="10">
-        <v>1732</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="27"/>
+      <c r="E14" s="8">
+        <v>1650</v>
+      </c>
+      <c r="F14" s="64">
+        <f t="shared" si="0"/>
+        <v>34.799999999999997</v>
+      </c>
+      <c r="G14" s="64">
+        <f t="shared" si="1"/>
+        <v>49.3</v>
+      </c>
+      <c r="H14" s="66">
+        <f t="shared" si="2"/>
+        <v>4.027777777777778E-2</v>
+      </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="44"/>
-      <c r="C15" s="47" t="s">
+      <c r="B15" s="61"/>
+      <c r="C15" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="8">
         <v>1703</v>
       </c>
-      <c r="E15" s="10">
-        <v>1720</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="27"/>
+      <c r="E15" s="8">
+        <v>1646</v>
+      </c>
+      <c r="F15" s="64">
+        <f t="shared" si="0"/>
+        <v>68.399999999999991</v>
+      </c>
+      <c r="G15" s="64">
+        <f t="shared" si="1"/>
+        <v>96.899999999999991</v>
+      </c>
+      <c r="H15" s="66">
+        <f t="shared" si="2"/>
+        <v>7.9166666666666663E-2</v>
+      </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="44"/>
-      <c r="C16" s="47" t="s">
+      <c r="B16" s="61"/>
+      <c r="C16" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="8">
         <v>1728</v>
       </c>
-      <c r="E16" s="10">
-        <v>1763</v>
-      </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="27"/>
+      <c r="E16" s="8">
+        <v>1687</v>
+      </c>
+      <c r="F16" s="64">
+        <f t="shared" si="0"/>
+        <v>49.199999999999996</v>
+      </c>
+      <c r="G16" s="64">
+        <f t="shared" si="1"/>
+        <v>69.7</v>
+      </c>
+      <c r="H16" s="66">
+        <f t="shared" si="2"/>
+        <v>5.6944444444444443E-2</v>
+      </c>
     </row>
     <row r="17" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="45"/>
-      <c r="C17" s="48" t="s">
+      <c r="B17" s="62"/>
+      <c r="C17" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="15">
         <v>1795</v>
       </c>
-      <c r="E17" s="28">
-        <v>1807</v>
-      </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="29"/>
+      <c r="E17" s="15">
+        <v>1760</v>
+      </c>
+      <c r="F17" s="65">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="G17" s="65">
+        <f t="shared" si="1"/>
+        <v>59.5</v>
+      </c>
+      <c r="H17" s="67">
+        <f t="shared" si="2"/>
+        <v>4.8611111111111112E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G18" s="71" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" s="68">
+        <f>MAX(H6:H17)</f>
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G19" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="69">
+        <f>MIN(H6:H17)</f>
+        <v>4.027777777777778E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G20" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" s="70">
+        <f>AVERAGE(H6:H17)</f>
+        <v>0.10231481481481482</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
